--- a/Lab 4 files/LAB DATA/DataLab4.xlsx
+++ b/Lab 4 files/LAB DATA/DataLab4.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangm\Desktop\2017 Fall\EE152\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albertwandui/Documents/Classes/Caltech Classes/Fall Quarter 2017/High Frequency Lab/Lab 4 files/LAB DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6060" xr2:uid="{2F6E33F4-13BC-4E49-9A6E-34D1B8853F63}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>N</t>
   </si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>Step 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Keep</t>
   </si>
   <si>
     <t>Step16</t>
@@ -92,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,19 +440,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B11066E-0A21-4EF5-BB0E-4DD95DD862B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.08984375" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-30</v>
       </c>
@@ -475,7 +478,7 @@
         <v>-23.9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-20</v>
       </c>
@@ -491,7 +494,7 @@
         <v>-3.8999999999999986</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-10</v>
       </c>
@@ -499,13 +502,13 @@
         <v>1.7110000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>3-C8</f>
         <v>-8.7110000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -517,7 +520,7 @@
         <v>11.711</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-20</v>
       </c>
@@ -525,7 +528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -533,7 +536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-37.29</v>
       </c>
@@ -541,12 +544,12 @@
         <v>-11.98</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-31.3</v>
       </c>
@@ -554,12 +557,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -573,7 +576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -586,8 +589,12 @@
       <c r="E17">
         <v>-50.67</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17">
+        <f>D17+11.7</f>
+        <v>6.6999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -600,8 +607,12 @@
       <c r="E18">
         <v>-40.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F18">
+        <f t="shared" ref="F18:F29" si="0">D18+11.7</f>
+        <v>7.6999999999999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -614,8 +625,12 @@
       <c r="E19">
         <v>-37.04</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -628,8 +643,12 @@
       <c r="E20">
         <v>-34.82</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -642,8 +661,12 @@
       <c r="E21">
         <v>-33.33</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -656,8 +679,12 @@
       <c r="E22">
         <v>-32.44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -670,8 +697,12 @@
       <c r="E23">
         <v>-31.94</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -684,8 +715,12 @@
       <c r="E24">
         <v>-31.65</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5.98</v>
       </c>
@@ -698,11 +733,12 @@
       <c r="E25">
         <v>-31.52</v>
       </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25">
+        <f>D25+11.7</f>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5.99</v>
       </c>
@@ -715,8 +751,12 @@
       <c r="E26">
         <v>-31.64</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>6</v>
       </c>
@@ -729,8 +769,12 @@
       <c r="E27">
         <v>-31.92</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6.01</v>
       </c>
@@ -743,8 +787,12 @@
       <c r="E28">
         <v>-32.65</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6.02</v>
       </c>
@@ -757,8 +805,12 @@
       <c r="E29">
         <v>-34</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6.03</v>
       </c>
@@ -766,7 +818,7 @@
         <v>-30.34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6.04</v>
       </c>
@@ -774,7 +826,7 @@
         <v>-29.42</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6.05</v>
       </c>
@@ -782,7 +834,7 @@
         <v>-28.98</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>6.06</v>
       </c>
@@ -790,7 +842,7 @@
         <v>-29.9</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6.07</v>
       </c>
@@ -798,7 +850,7 @@
         <v>-29.5</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6.08</v>
       </c>
@@ -806,7 +858,7 @@
         <v>-30.2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6.09</v>
       </c>
@@ -814,7 +866,7 @@
         <v>-30.9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>5.88</v>
       </c>
@@ -822,7 +874,7 @@
         <v>-29.62</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5.87</v>
       </c>
@@ -830,7 +882,7 @@
         <v>-30.92</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>5.86</v>
       </c>
@@ -838,7 +890,7 @@
         <v>-33.83</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>5.85</v>
       </c>
@@ -846,7 +898,7 @@
         <v>-36.93</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5.84</v>
       </c>
@@ -854,7 +906,7 @@
         <v>-39.049999999999997</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>5.83</v>
       </c>
@@ -862,7 +914,7 @@
         <v>-40.72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5.82</v>
       </c>
@@ -870,7 +922,7 @@
         <v>-42.46</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>5.81</v>
       </c>
@@ -878,15 +930,15 @@
         <v>-45.69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46">
         <v>5.9</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>-30</v>
       </c>
@@ -894,7 +946,7 @@
         <v>-41.37</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>-29</v>
       </c>
@@ -902,7 +954,7 @@
         <v>-40.299999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>-28</v>
       </c>
@@ -910,7 +962,7 @@
         <v>-39.33</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>-27</v>
       </c>
@@ -918,7 +970,7 @@
         <v>-38.32</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>-26</v>
       </c>
@@ -926,7 +978,7 @@
         <v>-37.299999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>-25</v>
       </c>
@@ -934,7 +986,7 @@
         <v>-36.36</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>-24</v>
       </c>
@@ -942,7 +994,7 @@
         <v>-35.33</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>-23</v>
       </c>
@@ -950,7 +1002,7 @@
         <v>-34.409999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>-22</v>
       </c>
@@ -958,7 +1010,7 @@
         <v>-33.36</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>-21</v>
       </c>
@@ -966,7 +1018,7 @@
         <v>-32.5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>-20</v>
       </c>
@@ -974,7 +1026,7 @@
         <v>-31.57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>-19</v>
       </c>
@@ -982,7 +1034,7 @@
         <v>-30.47</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>-18</v>
       </c>
@@ -990,7 +1042,7 @@
         <v>-29.55</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>-17</v>
       </c>
@@ -998,7 +1050,7 @@
         <v>-28.62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>-16</v>
       </c>
@@ -1006,7 +1058,7 @@
         <v>-27.6</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>-15</v>
       </c>
@@ -1014,7 +1066,7 @@
         <v>-26.67</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>-14</v>
       </c>
@@ -1022,7 +1074,7 @@
         <v>-25.78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>-13</v>
       </c>
@@ -1030,7 +1082,7 @@
         <v>-24.87</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>-12</v>
       </c>
@@ -1038,7 +1090,7 @@
         <v>-24.14</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>-11</v>
       </c>
@@ -1046,7 +1098,7 @@
         <v>-23.35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>-10</v>
       </c>
@@ -1054,7 +1106,7 @@
         <v>-22.67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>-9</v>
       </c>
@@ -1062,7 +1114,7 @@
         <v>-22.02</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>-8</v>
       </c>
@@ -1070,7 +1122,7 @@
         <v>-21.54</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>-7</v>
       </c>
@@ -1078,7 +1130,7 @@
         <v>-21.54</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>-6</v>
       </c>
@@ -1086,7 +1138,7 @@
         <v>-20.91</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>-5</v>
       </c>
@@ -1094,7 +1146,7 @@
         <v>-20.77</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>-4</v>
       </c>
@@ -1102,7 +1154,7 @@
         <v>-20.68</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>-3</v>
       </c>
@@ -1110,7 +1162,7 @@
         <v>-20.66</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>-2</v>
       </c>
@@ -1118,7 +1170,7 @@
         <v>-20.68</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>-1</v>
       </c>
@@ -1126,7 +1178,7 @@
         <v>-20.32</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0</v>
       </c>

--- a/Lab 4 files/LAB DATA/DataLab4.xlsx
+++ b/Lab 4 files/LAB DATA/DataLab4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
